--- a/Team-Data/2011-12/1-26-2011-12.xlsx
+++ b/Team-Data/2011-12/1-26-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
@@ -765,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.471</v>
+        <v>0.438</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
@@ -869,37 +936,37 @@
         <v>74.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="O3" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P3" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>9.1</v>
       </c>
       <c r="S3" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T3" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U3" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V3" t="n">
         <v>15.6</v>
@@ -908,34 +975,34 @@
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>20</v>
@@ -947,22 +1014,22 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -980,19 +1047,19 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>15</v>
@@ -1001,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1202,7 @@
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>-3.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>18</v>
@@ -1496,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -1660,10 +1727,10 @@
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>20</v>
@@ -1672,7 +1739,7 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1714,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2263,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -2388,10 +2455,10 @@
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2591,10 +2658,10 @@
         <v>22</v>
       </c>
       <c r="AM12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
@@ -2630,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>19</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,19 +2753,19 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>79.3</v>
+        <v>79.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="O13" t="n">
         <v>18.1</v>
@@ -2707,25 +2774,25 @@
         <v>27.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.662</v>
+        <v>0.659</v>
       </c>
       <c r="R13" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="S13" t="n">
         <v>29.4</v>
       </c>
       <c r="T13" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X13" t="n">
         <v>5.4</v>
@@ -2737,46 +2804,46 @@
         <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL13" t="n">
         <v>6</v>
       </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>5</v>
-      </c>
       <c r="AM13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>26</v>
@@ -2800,13 +2867,13 @@
         <v>11</v>
       </c>
       <c r="AV13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX13" t="n">
         <v>7</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>3</v>
@@ -2821,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="BC13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -2934,10 +3001,10 @@
         <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -2949,7 +3016,7 @@
         <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
         <v>26</v>
@@ -2970,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
@@ -3003,7 +3070,7 @@
         <v>21</v>
       </c>
       <c r="BC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.556</v>
+        <v>0.588</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.459</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="O15" t="n">
+        <v>16</v>
+      </c>
+      <c r="P15" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="R15" t="n">
         <v>11.6</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="O15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="R15" t="n">
-        <v>11.7</v>
-      </c>
       <c r="S15" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T15" t="n">
         <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="W15" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="X15" t="n">
         <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3143,16 +3210,16 @@
         <v>21</v>
       </c>
       <c r="AO15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AP15" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>23</v>
@@ -3164,19 +3231,19 @@
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="n">
         <v>16</v>
@@ -3185,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -3310,13 +3377,13 @@
         <v>3</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-1.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3489,7 +3556,7 @@
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3501,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -3665,13 +3732,13 @@
         <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
@@ -3686,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>5</v>
@@ -3731,7 +3798,7 @@
         <v>13</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3871,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
@@ -3892,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3901,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>20</v>
@@ -4068,7 +4135,7 @@
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
@@ -4086,7 +4153,7 @@
         <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
@@ -4217,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
@@ -4247,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4274,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="BB21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -4488,100 +4555,100 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.667</v>
+        <v>0.706</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="J23" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.392</v>
+        <v>0.396</v>
       </c>
       <c r="O23" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P23" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.652</v>
+        <v>0.657</v>
       </c>
       <c r="R23" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>6</v>
       </c>
       <c r="AF23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>9</v>
@@ -4608,40 +4675,40 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AS23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -4754,10 +4821,10 @@
         <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
@@ -4787,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
@@ -4984,7 +5051,7 @@
         <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -5118,10 +5185,10 @@
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
@@ -5136,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
         <v>15</v>
@@ -5154,22 +5221,22 @@
         <v>6</v>
       </c>
       <c r="AR26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS26" t="n">
         <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU26" t="n">
         <v>13</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
@@ -5178,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5348,19 +5415,19 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>19</v>
       </c>
       <c r="AZ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW28" t="n">
         <v>22</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5758,7 @@
         <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5703,7 +5770,7 @@
         <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>1.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
@@ -5861,7 +5928,7 @@
         <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5882,7 +5949,7 @@
         <v>21</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
         <v>7</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
@@ -6079,7 +6146,7 @@
         <v>17</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
@@ -6088,7 +6155,7 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-26-2011-12</t>
+          <t>2012-01-26</t>
         </is>
       </c>
     </row>
